--- a/server/src/entities/report/new_report.xlsx
+++ b/server/src/entities/report/new_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="995" firstSheet="1"/>
+    <workbookView windowHeight="17655" tabRatio="995" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="portraits" sheetId="8" r:id="rId1"/>
@@ -6740,7 +6740,7 @@
   </si>
   <si>
     <t>核心挑战：“被迫的倾听者”。
-●因为你总能听懂别人的弦外之音，周围人（尤其是逻辑混乱的人）特别喜欢找你倾诉或商量。你可能为了维持“聪明/善解人意”的人设（社会性成瘾），强迫自己去听，结果导致“听觉过劳”，内心充满烦躁</t>
+因为你总能听懂别人的弦外之音，周围人（尤其是逻辑混乱的人）特别喜欢找你倾诉或商量。你可能为了维持“聪明/善解人意”的人设（社会性成瘾），强迫自己去听，结果导致“听觉过劳”，内心充满烦躁</t>
   </si>
   <si>
     <t>当你感到不耐烦时，承认“我已经懂了，天赋脉冲结束了”。告诉自己：“多听一秒都是对能量的浪费。”不要自我攻击“我怎么没耐心”，你的耐心只够用在“提取信息”的那一瞬间。</t>
@@ -6755,9 +6755,8 @@
     <t>“打断冲动”vs.“有效反馈”</t>
   </si>
   <si>
-    <t xml:space="preserve">
-●核心挑战：“话题终结者”。
-●因为你听得太快，你往往在对方只说了前三句时就预判了结局，于是本能地想打断：“行了我知道了，你就是想说……”这虽然高效，但极度伤人，破坏关系。</t>
+    <t>核心挑战：“话题终结者”。
+因为你听得太快，你往往在对方只说了前三句时就预判了结局，于是本能地想打断：“行了我知道了，你就是想说……”这虽然高效，但极度伤人，破坏关系。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法
@@ -6790,7 +6789,7 @@
   </si>
   <si>
     <t>核心挑战：“无法关闭的麦克风”。
-●因为天赋太好，环境中的任何声音变化（如远处装修的电钻声规律变化、电梯运行的异响）都会被迫钻进你的耳朵。但因为喜欢度低，你对此感到烦躁而非欣赏。你可能经常处于“被动听”的消耗状态，觉得世界太吵了。</t>
+因为天赋太好，环境中的任何声音变化（如远处装修的电钻声规律变化、电梯运行的异响）都会被迫钻进你的耳朵。但因为喜欢度低，你对此感到烦躁而非欣赏。你可能经常处于“被动听”的消耗状态，觉得世界太吵了。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法
@@ -6846,9 +6845,8 @@
     <t>“智力负担”vs.“频道分离”</t>
   </si>
   <si>
-    <t xml:space="preserve">
-●核心挑战：“清醒的疲惫”。
-●因为你总能听到别人的错误，你容易感到一种“沟通成本极高”的疲惫感。你可能会因为周围充斥着逻辑混乱的对话而感到烦躁，觉得周围的信号充满了“噪点”。这种被动的纠错消耗了你大量的认知带宽，让你想要逃离社交。</t>
+    <t>核心挑战：“清醒的疲惫”。
+因为你总能听到别人的错误，你容易感到一种“沟通成本极高”的疲惫感。你可能会因为周围充斥着逻辑混乱的对话而感到烦躁，觉得周围的信号充满了“噪点”。这种被动的纠错消耗了你大量的认知带宽，让你想要逃离社交。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法
@@ -6866,9 +6864,8 @@
     <t>“被动攻击”vs.“专业交付”</t>
   </si>
   <si>
-    <t xml:space="preserve">
-●核心挑战：“话题终结者”。
-●你虽然懒得大篇幅纠正，但偶尔忍不住冒出一句反问（“那个数据来源是哪？”），或者在对方逻辑自洽的瞬间露出不以为然的微表情。这让你在人群中显得“难以亲近”或“爱泼冷水”。你本意不是攻击人，但你的“客观”伤到了别人的“主观”。</t>
+    <t>核心挑战：“话题终结者”。
+你虽然懒得大篇幅纠正，但偶尔忍不住冒出一句反问（“那个数据来源是哪？”），或者在对方逻辑自洽的瞬间露出不以为然的微表情。这让你在人群中显得“难以亲近”或“爱泼冷水”。你本意不是攻击人，但你的“客观”伤到了别人的“主观”。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法
@@ -6886,9 +6883,8 @@
     <t>“垃圾分类”vs.“情报萃取”</t>
   </si>
   <si>
-    <t xml:space="preserve">
-●核心挑战：“无效信息的堆积”。
-●你的大脑自动收集了大量别人的“逻辑漏洞”或“事实错误”。这些信息如果不能转化为价值，就只是占据你内存的“负面数据”，让你对环境感到失望，觉得“没几个明白人”。</t>
+    <t>核心挑战：“无效信息的堆积”。
+你的大脑自动收集了大量别人的“逻辑漏洞”或“事实错误”。这些信息如果不能转化为价值，就只是占据你内存的“负面数据”，让你对环境感到失望，觉得“没几个明白人”。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法
@@ -6913,7 +6909,7 @@
   </si>
   <si>
     <t>核心挑战：“无法逃离的刺”。
-●你的耳朵24小时在捕捉“瑕疵”。冰箱的嗡嗡声、楼上的脚步声、同事敲键盘的节奏不对，都会引发你强烈的生理性烦躁。你不是矫情，你是真的“听觉过载”。但你往往不知道这是天赋在作祟，误以为自己脾气不好或神经衰弱。</t>
+你的耳朵24小时在捕捉“瑕疵”。冰箱的嗡嗡声、楼上的脚步声、同事敲键盘的节奏不对，都会引发你强烈的生理性烦躁。你不是矫情，你是真的“听觉过载”。但你往往不知道这是天赋在作祟，误以为自己脾气不好或神经衰弱。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法
@@ -6932,7 +6928,7 @@
   </si>
   <si>
     <t>核心挑战：“扫兴的挑刺者”。
-●当朋友兴致勃勃地唱歌或演奏时，你本能地听到“跑调了”、“抢拍了”。因为缺乏“一起玩”的热情（低喜欢），你可能下意识地皱眉、捂耳朵，或者冷冷地指出错误。这让你成为聚会中的“气氛杀手”，让人觉得你难伺候。</t>
+当朋友兴致勃勃地唱歌或演奏时，你本能地听到“跑调了”、“抢拍了”。因为缺乏“一起玩”的热情（低喜欢），你可能下意识地皱眉、捂耳朵，或者冷冷地指出错误。这让你成为聚会中的“气氛杀手”，让人觉得你难伺候。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法
@@ -6951,7 +6947,7 @@
   </si>
   <si>
     <t>核心挑战：“被浪费的显微镜”。
-●你可能觉得“听得太清楚”是一种诅咒，除了让自己心烦，没有任何用处。你因为不喜欢音乐，就觉得这个听觉天赋是废品，甚至想摆脱它。</t>
+你可能觉得“听得太清楚”是一种诅咒，除了让自己心烦，没有任何用处。你因为不喜欢音乐，就觉得这个听觉天赋是废品，甚至想摆脱它。</t>
   </si>
   <si>
     <t>听到瑕疵的瞬间（天赋点火），立刻拷问：“这个瑕疵需要被记录（记）、被解决（做）还是被分析（想）？</t>
@@ -7059,84 +7055,7 @@
     <t xml:space="preserve"> 你的天赋追求“最短路径”的沟通（结论先行），但人际交往往往需要“冗余路径”（寒暄、铺垫）。你的直球式表达容易被误读为傲慢、缺乏人情味或“话题终结者”。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一念之间（即时心法）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【定义</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
+    <t>一念之间（即时心法）： 【定义“接口”】</t>
   </si>
   <si>
     <t>当你想快速结束话题时，不要直接用句号。给出一个“行动接口”。例如：“（总结完核心后）……所以，我们接下来只需要做这一件事，对吗？”用“确认推进”代替“冷漠终止”。</t>
@@ -7373,104 +7292,10 @@
     <t>沉默的代价</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因为厌恶说话（低喜欢），你倾向于在过程中保持沉默。但这会导致局面失控，产出错误的结论，最终迫使你不得不花费更多口舌去收拾残局（被动卷入，得不偿失）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一念之间（即时心法）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【寻找</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接力棒</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
+    <t>因为厌恶说话（低喜欢），你倾向于在过程中保持沉默。但这会导致局面失控，产出错误的结论，最终迫使你不得不花费更多口舌去收拾残局（被动卷入，得不偿失）。</t>
+  </si>
+  <si>
+    <t>一念之间（即时心法）： 【寻找“接力棒”】</t>
   </si>
   <si>
     <t>既然你的“说”只能维持 30 秒的高光时刻，那么说完之后，谁来接手？问自己：“我这句话是为了把任务分出去（接驳做），还是为了把方案定下来（接驳想）？”</t>
@@ -7840,183 +7665,10 @@
     <t>天赋溢出的疲惫</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因为你总能把复杂的事情讲简单，周围人遇到难题本能地想找你求教。你容易陷入</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>由于能力太强而被动卷入教学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的疲惫中，感觉自己的时间被这些琐碎的提问切碎了。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一念之间（即时心法）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【我是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>封装者</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，不是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保姆</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
+    <t>因为你总能把复杂的事情讲简单，周围人遇到难题本能地想找你求教。你容易陷入“由于能力太强而被动卷入教学”的疲惫中，感觉自己的时间被这些琐碎的提问切碎了。</t>
+  </si>
+  <si>
+    <t>一念之间（即时心法）： 【我是“封装者”，不是“保姆”】</t>
   </si>
   <si>
     <t>当有人来问你问题，你感到烦躁时，告诉自己：“我的解释天赋不是用来‘服务人’的，是用来‘处理信息’的。”
@@ -8183,138 +7835,103 @@
   </si>
   <si>
     <r>
+      <t>因为缺乏分享的热情，你在解释时可能惜字如金，或者因为对方反应慢而流露出生硬的语气。这容易让人觉得你</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Wingdings"/>
         <charset val="134"/>
       </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因为缺乏分享的热情，你在解释时可能惜字如金，或者因为对方反应慢而流露出生硬的语气。这容易让人觉得你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>“</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>智商歧视</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
         <charset val="134"/>
       </rPr>
       <t>”</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>或</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
         <charset val="134"/>
       </rPr>
       <t>“</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>高高在上</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
         <charset val="134"/>
       </rPr>
       <t>”</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。其实你不是看不起人，你只是</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
         <charset val="134"/>
       </rPr>
       <t>“</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>不想营业</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
         <charset val="134"/>
       </rPr>
       <t>”</t>
@@ -8323,51 +7940,14 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一念之间（即时心法）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【产品化交付】</t>
-    </r>
+    <t>一念之间（即时心法）： 【产品化交付】</t>
   </si>
   <si>
     <t>把你的解释看作一个“标准化产品”（如一份说明书）。交付产品时，不需要带情绪，只需要带逻辑。
@@ -8605,64 +8185,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你的天赋往往消耗在了一次性的口头解释上，说完就散了。这对你来说是极大的浪费，因为你不仅付出了能量，还没留下任何资产。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一念之间（即时心法）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【一次性原件思维】</t>
-    </r>
+    <t>你的天赋往往消耗在了一次性的口头解释上，说完就散了。这对你来说是极大的浪费，因为你不仅付出了能量，还没留下任何资产。</t>
+  </si>
+  <si>
+    <t>一念之间（即时心法）： 【一次性原件思维】</t>
   </si>
   <si>
     <t>告诉自己：“同样的高质量解释，我只生产一次。”
@@ -8925,115 +8451,7 @@
     <t>被动回放的低效</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你的记忆往往是被动触发的（看到某物突然想起）。你觉得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>记得细节是理所当然</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这让你忽略了对记忆进行</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结构化整理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，导致你的记忆资源无法被团队高效复用，只能靠你个人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人肉检索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
+    <t>你的记忆往往是被动触发的（看到某物突然想起）。你觉得“记得细节是理所当然”，这让你忽略了对记忆进行结构化整理，导致你的记忆资源无法被团队高效复用，只能靠你个人“人肉检索”。</t>
   </si>
   <si>
     <t>一念之间（即时心法）： 【黑箱白盒化】</t>
@@ -9220,8 +8638,8 @@
   <si>
     <t>能力建设营：
 1.【去色处理】不要把脑子里的“优化方案”当成必须执行的任务。对自己说：“这只是大脑玩的一个‘找不同’游戏。” 允许自己“只看不改”，与不完美共存。
-2. [提案客体化]： 将脑子里的想法视为**“弹窗广告”**。你可以选择“点击执行”，也可以选择“关闭”。对自己说：“这只是大脑自动生成的一个优化建议，我有权不予采纳。”
-3. [关机练习]： 每天设定一个**“非优化时间”**（比如下班后一小时，或者陪家人的时候）。在这段时间里，允许一切混乱、低效甚至错误存在。告诉大脑：“现在是待机模式，不处理任何 Bug。”通过主动的“允许混乱”，来降低大脑的后台能耗。</t>
+2. [提案客体化]： 将脑子里的想法视为“弹窗广告”。你可以选择“点击执行”，也可以选择“关闭”。对自己说：“这只是大脑自动生成的一个优化建议，我有权不予采纳。”
+3. [关机练习]： 每天设定一个“非优化时间”（比如下班后一小时，或者陪家人的时候）。在这段时间里，允许一切混乱、低效甚至错误存在。告诉大脑：“现在是待机模式，不处理任何 Bug。”通过主动的“允许混乱”，来降低大脑的后台能耗。</t>
   </si>
   <si>
     <t>挑剔者的误解</t>
@@ -9252,8 +8670,8 @@
   </si>
   <si>
     <t>能力建设营：
-1. [黑箱白盒化]： 建立你的“生活黑客 (Life Hacks) 库”。将你脑海中那些零散的微创新，提炼成通用的“创意模式”（如：“功能叠加法”——把书架和猫爬架合二为一；“旧物新用法”**——用长尾夹整理数据线）。把直觉变成可复制的创意公式。
-2. [可视化对比]： 当你需要推销你的点子（例如说服家人改变摆放）时，不要只靠嘴说（容易像唠叨）。画一张简单的**“Before/After”对比图**，或者列出“这样改能节省 10 分钟”的数据。让你的直觉显性化，用客观效果代替主观评价。</t>
+1. [黑箱白盒化]： 建立你的“生活黑客 (Life Hacks) 库”。将你脑海中那些零散的微创新，提炼成通用的“创意模式”（如：“功能叠加法”——把书架和猫爬架合二为一；“旧物新用法”——用长尾夹整理数据线）。把直觉变成可复制的创意公式。
+2. [可视化对比]： 当你需要推销你的点子（例如说服家人改变摆放）时，不要只靠嘴说（容易像唠叨）。画一张简单的“Before/After”对比图，或者列出“这样改能节省 10 分钟”的数据。让你的直觉显性化，用客观效果代替主观评价。</t>
   </si>
   <si>
     <t>脑洞过载的焦虑</t>
@@ -9403,7 +8821,7 @@
   <si>
     <t>能力建设营：
 1. [极速通关]： 对于无法挂钩动力但必须做的杂事，告诉自己：“这是‘过路费’。交了费，我才能去往我想去的地方。” 利用天赋快速搞定，不求完美，只求通过。
-2. [能量隔离]： 设定一个**“非工作模式”**。在处理完必须做的验证任务后，刻意做一件完全不需要动脑、纯粹享受的事（如听音乐、散步），彻底切断逻辑脑的惯性，防止内耗蔓延。</t>
+2. [能量隔离]： 设定一个“非工作模式”。在处理完必须做的验证任务后，刻意做一件完全不需要动脑、纯粹享受的事（如听音乐、散步），彻底切断逻辑脑的惯性，防止内耗蔓延。</t>
   </si>
   <si>
     <t>被误解的冷漠</t>
@@ -10028,13 +9446,13 @@
     </r>
   </si>
   <si>
-    <t>利用你“多人沟通中瞬间提炼核心”的能力，在危机公关、高层决策、谈判僵局中，进行一锤定音的裁决。</t>
+    <t>利用你“多人沟通中瞬间提炼核心”的能力，在危机公关、高层决策、谈判僵局中，进行一锤定音的裁决。</t>
   </si>
   <si>
     <t>危机公关顾问、法庭辩论律师（结案陈词环节）、战略咨询顾问、运营总监（负责砍需求）。</t>
   </si>
   <si>
-    <t>身处一个大家争执不下、毫无进展的会议中。你感到不耐烦，想要结束这一切。当你脑海中已经有了“标准答案”时，尝试以下三种接驳方式，看哪一种让你觉得最顺手、最爽？</t>
+    <t>身处一个大家争执不下、毫无进展的会议中。你感到不耐烦，想要结束这一切。当你脑海中已经有了“标准答案”时，尝试以下三种接驳方式，看哪一种让你觉得最顺手、最爽？</t>
   </si>
   <si>
     <r>
@@ -10079,48 +9497,13 @@
     </r>
   </si>
   <si>
-    <t>利用你“精准适配受众”的能力，将晦涩的专业知识（技术、医疗、法律），翻译成普通人能听懂的语言。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技术布道师、科普作家、医疗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法律咨询顾问、售前工程师。</t>
-    </r>
-  </si>
-  <si>
-    <t> 一个朋友对某个复杂概念（如区块链、保险条款、新政策）感到困惑，来向你请教。</t>
+    <t>利用你“精准适配受众”的能力，将晦涩的专业知识（技术、医疗、法律），翻译成普通人能听懂的语言。</t>
+  </si>
+  <si>
+    <t>技术布道师、科普作家、医疗/法律咨询顾问、售前工程师。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一个朋友对某个复杂概念（如区块链、保险条款、新政策）感到困惑，来向你请教。</t>
   </si>
   <si>
     <r>
@@ -10165,69 +9548,34 @@
     </r>
   </si>
   <si>
-    <t>利用极强的“结构映射”能力，将晦涩的专业知识或混乱的系统逻辑，封装成傻瓜都能看懂的“界面”或“文档”。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技术文档工程师、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">SOP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流程制定者、知识库维护者、复杂系统说明书撰写人。</t>
-    </r>
-  </si>
-  <si>
-    <t> 面对一个极其晦涩难懂的理论、规则或系统操作流程。你通过天赋瞬间搞懂了它的核心逻辑，并想到了一个绝妙的比喻。接下来：</t>
+    <t>利用极强的“结构映射”能力，将晦涩的专业知识或混乱的系统逻辑，封装成傻瓜都能看懂的“界面”或“文档”。</t>
+  </si>
+  <si>
+    <t>技术文档工程师、SOP 流程制定者、知识库维护者、复杂系统说明书撰写人。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 面对一个极其晦涩难懂的理论、规则或系统操作流程。你通过天赋瞬间搞懂了它的核心逻辑，并想到了一个绝妙的比喻。接下来：</t>
   </si>
   <si>
     <t>关键时刻的“定海神针”</t>
   </si>
   <si>
-    <t>在关键时刻，利用极具感染力的表达，瞬间统一思想、提振士气或扭转局势。</t>
-  </si>
-  <si>
-    <t>创业公司 CEO（路演方向）、危机公关发言人、谈判主理人、公益发起人。</t>
-  </si>
-  <si>
-    <t>面对一群士气低落的伙伴，或者一个犹豫不决的客户。</t>
+    <t>在关键时刻，利用极具感染力的表达，瞬间统一思想、提振士气或扭转局势。</t>
+  </si>
+  <si>
+    <t>创业公司 CEO（路演方向）、危机公关发言人、谈判主理人、公益发起人。</t>
+  </si>
+  <si>
+    <t>面对一群士气低落的伙伴，或者一个犹豫不决的客户。</t>
   </si>
   <si>
     <t>精准的“事实核查官”与“复盘专家”</t>
   </si>
   <si>
-    <t>利用你对细节的极致还原能力，在项目复盘、事故调查或纠纷调解中，提供最客观、最详实的“现场还原”，成为团队理性的基石。</t>
-  </si>
-  <si>
-    <t>质量控制(QC)、合规审计、事故调查员、用户体验复盘专家。</t>
+    <t>利用你对细节的极致还原能力，在项目复盘、事故调查或纠纷调解中，提供最客观、最详实的“现场还原”，成为团队理性的基石。</t>
+  </si>
+  <si>
+    <t>质量控制(QC)、合规审计、事故调查员、用户体验复盘专家。</t>
   </si>
   <si>
     <t>寻找你的“接力棒”</t>
@@ -13459,51 +12807,150 @@
     <t>“嗨聊” vs. “事后懊恼”</t>
   </si>
   <si>
-    <t xml:space="preserve"> 你在聚会时说得很嗨（多巴胺上头），觉得气氛很好。但事后回想，或者看到别人的反应，会发现自己**“说了很多废话”，甚至因为口无遮拦而感到懊恼。这种“现场自嗨，事后尴尬”**的循环，让你虽然爱说，却很难赢得真正的尊重。</t>
+    <t xml:space="preserve"> 你在聚会时说得很嗨（多巴胺上头），觉得气氛很好。但事后回想，或者看到别人的反应，会发现自己“说了很多废话”，甚至因为口无遮拦而感到懊恼。这种“现场自嗨，事后尴尬”的循环，让你虽然爱说，却很难赢得真正的尊重。</t>
   </si>
   <si>
     <t>一念之间：化解“失控”的即时心法【心法要诀：数量“控制”】</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当你感觉到自己越说越兴奋、语速越来越快时，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立刻踩刹车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。告诉自己：</t>
-    </r>
-    <r>
-      <rPr>
+    <t>当你感觉到自己越说越兴奋、语速越来越快时，立刻踩刹车。告诉自己：“我的多巴胺过载了，现在说的话可能都是废话。”</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 物理限流： 给自己设定硬指标——“在别人没主动问我之前，绝不主动开启长篇大论。”
+2. 三句原则： 强迫自己练习“三句话说完一件事”。如果三句说不完，就闭嘴，回去整理清楚了再说。</t>
+  </si>
+  <si>
+    <t>“抢话” vs. “主持”</t>
+  </si>
+  <si>
+    <t>因为急于表达（喜欢），又抓不住切入点（天赋弱），你容易打断别人或强行插话，导致场面混乱。大家可能会觉得你“没眼力见”或“吵”。</t>
+  </si>
+  <si>
+    <t>一念之间：化解“冲突”的即时心法【心法要诀：角色“转换”】</t>
+  </si>
+  <si>
+    <t>当你想抢话时，把“我想说”转化为“我想问”。从“主演”变成“场记”。</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 功能性发言： 承认自己不擅长做核心观点的输出者。转而利用你的热情，做“那个负责点名让别人说话的人”（串场者）。
+2. 只做“捧哏”： 在别人发言时，只负责“提问”和“赞同”。把高难度的“总结”和“立论”留给擅长的人。</t>
+  </si>
+  <si>
+    <t>“即兴” vs. “脚本”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你羡慕第一象限的人“出口成章”，试图模仿他们即兴发言，结果往往是大脑一片空白或胡言乱语。你的大脑不支持“边说边想”的高速运算。</t>
+  </si>
+  <si>
+    <t>一念之间：化解“混乱”的即时心法【心法要诀：外挂“脚本”】</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 只要是公开场合发言（哪怕是开会），手里必须有纸条。</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 绝不裸奔： 把要说的1、2、3点写下来，照着读都比瞎说强。
+2. 预制件思维： 提前准备几个“万能句式”（如“我非常同意XX的观点，特别是……”），在需要发言时直接调用，填空即可。</t>
+  </si>
+  <si>
+    <t>“宣泄快感” vs. “事后空虚”</t>
+  </si>
+  <si>
+    <t>你在聊天时很容易“上头”，说了很多自己的私事或琐事。但聊完后，往往发现对方反应平淡，或者自己感到一种“交浅言深”的后悔。这种“我给了一颗真心，却换来礼貌敷衍”的落差，让你容易受伤。</t>
+  </si>
+  <si>
+    <t>一念之间：化解“后悔”的即时心法【心法要诀：流量“控制”】</t>
+  </si>
+  <si>
+    <t>当你感觉自己又要开始长篇大论时，对自己喊停：“我的流量（话语）超标了，现在需要限流。”</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 物理限流： 既然刹不住车，就设闹钟。给自己规定：“每次轮到我说话，不能超过3分钟。”
+2. 日记替代： 把那些“无关紧要的碎碎念”，先写在日记里（自我宣泄），而不是倒给朋友。把最好的状态留给对话。</t>
+  </si>
+  <si>
+    <t>“热情过度” vs. “社交压力”</t>
+  </si>
+  <si>
+    <t>你容易给人造成“社交压迫感”。因为你抓不住对方的“兴趣点”，往往在对方不感兴趣的话题上纠缠太久，或者问了太多隐私。你觉得这是“热情”，对方觉得这是“负担”。</t>
+  </si>
+  <si>
+    <t>一念之间：化解“压迫”的即时心法【心法要诀：申请“授权”】</t>
+  </si>
+  <si>
+    <t>在开启长篇大论前，先礼貌地问一句：“关于这件事，我有几个细节想跟你讲讲，你有时间听吗？”</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 中途打卡： 养成一个习惯，每隔几分钟，强制停下来问：“我说到这儿，你会觉得无聊吗？”把“判断权”交给对方，弥补自己直觉的缺失。
+2. 直球式社交： 多找那些性格直爽、有话直说的朋友聊天。避免和那些‘说话弯弯绕、需要高度猜谜’的人进行高难度博弈。因为你的表达风格是热烈且直给的，去试图适配他们的高语境暗示，会让你感到‘输出受阻’，极其消耗能量。</t>
+  </si>
+  <si>
+    <t>“想到哪说到哪” vs. “结构化脚本”</t>
+  </si>
+  <si>
+    <t>你的表达往往是“流意识”的，缺乏结构。对方听了半天，不知道你想表达“委屈”还是“愤怒”，还是只想“求安慰”。</t>
+  </si>
+  <si>
+    <t>一念之间：化解“混乱”的即时心法【心法要诀：外挂“框架”】</t>
+  </si>
+  <si>
+    <t>不要相信即兴发挥。说话前，先在脑子里填空。</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 万能句式： 既然脑子不会自动整理，就背几个“沟通模板”。例如：“我现在的感觉是……原因是……我希望你能……”（非暴力沟通模板）。
+2. 先给结论： 强迫自己第一句话先说目的：“我就是想吐槽一下 / 我想找你拿个主意。”让对方知道该怎么配合你。</t>
+  </si>
+  <si>
+    <t>“好心” vs. “受挫”</t>
+  </si>
+  <si>
+    <t>你明明是为对方好，费尽口舌讲了半天原理，对方却反应冷淡。这种“好心没好报”的落差，容易让你感到委屈：“为什么真理没人听？”或者怀疑自己：“是不是我口才太差了？”</t>
+  </si>
+  <si>
+    <t>一念之间：化解“委屈”的即时心法【心法要诀：去“老师”化】</t>
+  </si>
+  <si>
+    <t>告诉自己：“我不是他的老师（负责把原理讲透），我是他的情报员（负责提供线索）。”承认自己不适合做“解释工作”，放下“必须教会他”的执念。</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 定位转换： 把自己定义为“发现者”或“推荐者”。你的价值在于“发现好东西”，而不在于“讲清楚好东西”。
+2. 筛选受众： 只对那些主动求知、甚至求着你讲的人分享。对于不感兴趣的人，闭嘴是最大的智慧。</t>
+  </si>
+  <si>
+    <t>“强行输出” vs. “按需供给”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 因为太想分享（喜欢），你容易“逮谁跟谁说”。加上表达枯燥（天赋弱，缺乏趣味性），这极易给人造成“好为人师”的压迫感，让人想逃离。</t>
+  </si>
+  <si>
+    <t>一念之间：化解“压迫”的即时心法【心法要诀：邀请“制”】</t>
+  </si>
+  <si>
+    <t>给自己定铁律：“对方不问，我绝不教。” 忍住那个“想纠正别人”的冲动。</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 诱饵策略： 想分享时，只说一句勾起好奇心的话（“我最近发现个特好用的工具”）。如果对方追问“是什么？”，你再说；如果对方没反应，立刻闭嘴。
+2. 借力打力： 既然自己不会比喻，就直接转发大师的文章、视频或金句。做“优质内容的搬运工”，而不是“劣质内容的生产者”。</t>
+  </si>
+  <si>
+    <t>“解释原理” vs. “展示案例”</t>
+  </si>
+  <si>
+    <t>你习惯于从“原理/逻辑”出发去说服别人，但这需要极高的“搭建认知脚手架”的能力（天赋短板）。你越解释原理，对方越觉得抽象难懂。</t>
+  </si>
+  <si>
+    <t>一念之间：化解“枯燥”的即时心法【心法要诀：案例“说话”】</t>
+  </si>
+  <si>
+    <t>停止解释“为什么”。直接告诉他“谁用过、结果怎样”。</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 案例库思维： 讲道理讲不通，就讲故事。搜集3个使用这个方法成功的案例。案例不需要复杂的逻辑，只需要真实，它自带说服力。
+2. 视觉化辅助： 能发图就别说话。把你要讲的道理做成图表或找到示意图。让对方自己“看”明白，比你“讲”明白更容易。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
@@ -13513,34 +12960,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多巴胺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过载了，现在说的话可能都是废话。</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我陶醉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>” vs. “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残酷回放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
@@ -13550,217 +13000,33 @@
     </r>
   </si>
   <si>
-    <t>科学筑基的长期修炼1. 物理限流： 给自己设定硬指标——“在别人没主动问我之前，绝不主动开启长篇大论。”
-2. 三句原则： 强迫自己练习**“三句话说完一件事”**。如果三句说不完，就闭嘴，回去整理清楚了再说。</t>
-  </si>
-  <si>
-    <t>“抢话” vs. “主持”</t>
-  </si>
-  <si>
-    <t>因为急于表达（喜欢），又抓不住切入点（天赋弱），你容易打断别人或强行插话，导致场面混乱。大家可能会觉得你“没眼力见”或“吵”。</t>
-  </si>
-  <si>
-    <t>一念之间：化解“冲突”的即时心法【心法要诀：角色“转换”】</t>
-  </si>
-  <si>
-    <t>当你想抢话时，把“我想说”转化为“我想问”。从**“主演”变成“场记”**。</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 功能性发言： 承认自己不擅长做核心观点的输出者。转而利用你的热情，做**“那个负责点名让别人说话的人”**（串场者）。
-2. 只做“捧哏”： 在别人发言时，只负责**“提问”和“赞同”**。把高难度的“总结”和“立论”留给擅长的人。</t>
-  </si>
-  <si>
-    <t>“即兴” vs. “脚本”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 你羡慕第一象限的人“出口成章”，试图模仿他们即兴发言，结果往往是大脑一片空白或胡言乱语。你的大脑不支持“边说边想”的高速运算。</t>
-  </si>
-  <si>
-    <t>一念之间：化解“混乱”的即时心法【心法要诀：外挂“脚本”】</t>
-  </si>
-  <si>
-    <t> 只要是公开场合发言（哪怕是开会），手里必须有纸条。</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 绝不裸奔： 把要说的1、2、3点写下来，照着读都比瞎说强。
-2. 预制件思维： 提前准备几个**“万能句式”**（如“我非常同意XX的观点，特别是……”），在需要发言时直接调用，填空即可。</t>
-  </si>
-  <si>
-    <t>“宣泄快感” vs. “事后空虚”</t>
-  </si>
-  <si>
-    <t>你在聊天时很容易“上头”，说了很多自己的私事或琐事。但聊完后，往往发现对方反应平淡，或者自己感到一种“交浅言深”的后悔。这种**“我给了一颗真心，却换来礼貌敷衍”**的落差，让你容易受伤。</t>
-  </si>
-  <si>
-    <t>一念之间：化解“后悔”的即时心法【心法要诀：流量“控制”】</t>
-  </si>
-  <si>
-    <t>当你感觉自己又要开始长篇大论时，对自己喊停：“我的流量（话语）超标了，现在需要限流。”</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 物理限流： 既然刹不住车，就设闹钟。给自己规定：“每次轮到我说话，不能超过3分钟。”
-2. 日记替代： 把那些“无关紧要的碎碎念”，先写在日记里（自我宣泄），而不是倒给朋友。把最好的状态留给对话。</t>
-  </si>
-  <si>
-    <t>“热情过度” vs. “社交压力”</t>
-  </si>
-  <si>
-    <t>你容易给人造成**“社交压迫感”**。因为你抓不住对方的“兴趣点”，往往在对方不感兴趣的话题上纠缠太久，或者问了太多隐私。你觉得这是“热情”，对方觉得这是“负担”。</t>
-  </si>
-  <si>
-    <t>一念之间：化解“压迫”的即时心法【心法要诀：申请“授权”】</t>
-  </si>
-  <si>
-    <t>在开启长篇大论前，先礼貌地问一句：“关于这件事，我有几个细节想跟你讲讲，你有时间听吗？”</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 中途打卡： 养成一个习惯，每隔几分钟，强制停下来问：“我说到这儿，你会觉得无聊吗？”把“判断权”交给对方，弥补自己直觉的缺失。
-2. 直球式社交： 多找那些性格直爽、有话直说的朋友聊天。避免和那些‘说话弯弯绕、需要高度猜谜’的人进行高难度博弈。因为你的表达风格是热烈且直给的，去试图适配他们的高语境暗示，会让你感到‘输出受阻’，极其消耗能量。</t>
-  </si>
-  <si>
-    <t>“想到哪说到哪” vs. “结构化脚本”</t>
-  </si>
-  <si>
-    <t>你的表达往往是**“流意识”**的，缺乏结构。对方听了半天，不知道你想表达“委屈”还是“愤怒”，还是只想“求安慰”。</t>
-  </si>
-  <si>
-    <t>一念之间：化解“混乱”的即时心法【心法要诀：外挂“框架”】</t>
-  </si>
-  <si>
-    <t>不要相信即兴发挥。说话前，先在脑子里填空。</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 万能句式： 既然脑子不会自动整理，就背几个**“沟通模板”**。例如：“我现在的感觉是……原因是……我希望你能……”（非暴力沟通模板）。
-2. 先给结论： 强迫自己第一句话先说目的：“我就是想吐槽一下 / 我想找你拿个主意。”让对方知道该怎么配合你。</t>
-  </si>
-  <si>
-    <t>“好心” vs. “受挫”</t>
-  </si>
-  <si>
-    <t>你明明是为对方好，费尽口舌讲了半天原理，对方却反应冷淡。这种**“好心没好报”**的落差，容易让你感到委屈：“为什么真理没人听？”或者怀疑自己：“是不是我口才太差了？”</t>
-  </si>
-  <si>
-    <t>一念之间：化解“委屈”的即时心法【心法要诀：去“老师”化】</t>
-  </si>
-  <si>
-    <t>告诉自己：“我不是他的老师（负责把原理讲透），我是他的情报员（负责提供线索）。”承认自己不适合做“解释工作”，放下“必须教会他”的执念。</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 定位转换： 把自己定义为**“发现者”或“推荐者”**。你的价值在于“发现好东西”，而不在于“讲清楚好东西”。
-2. 筛选受众： 只对那些主动求知、甚至求着你讲的人分享。对于不感兴趣的人，闭嘴是最大的智慧。</t>
-  </si>
-  <si>
-    <t>“强行输出” vs. “按需供给”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 因为太想分享（喜欢），你容易**“逮谁跟谁说”。加上表达枯燥（天赋弱，缺乏趣味性），这极易给人造成“好为人师”**的压迫感，让人想逃离。</t>
-  </si>
-  <si>
-    <t>一念之间：化解“压迫”的即时心法【心法要诀：邀请“制”】</t>
-  </si>
-  <si>
-    <t>给自己定铁律：“对方不问，我绝不教。” 忍住那个“想纠正别人”的冲动。</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 诱饵策略： 想分享时，只说一句勾起好奇心的话（“我最近发现个特好用的工具”）。如果对方追问“是什么？”，你再说；如果对方没反应，立刻闭嘴。
-2. 借力打力： 既然自己不会比喻，就直接转发大师的文章、视频或金句。做“优质内容的搬运工”，而不是“劣质内容的生产者”。</t>
-  </si>
-  <si>
-    <t>“解释原理” vs. “展示案例”</t>
-  </si>
-  <si>
-    <t>你习惯于从**“原理/逻辑”**出发去说服别人，但这需要极高的“搭建认知脚手架”的能力（天赋短板）。你越解释原理，对方越觉得抽象难懂。</t>
-  </si>
-  <si>
-    <t>一念之间：化解“枯燥”的即时心法【心法要诀：案例“说话”】</t>
-  </si>
-  <si>
-    <t>停止解释“为什么”。直接告诉他**“谁用过、结果怎样”**。</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 案例库思维： 讲道理讲不通，就讲故事。搜集3个使用这个方法成功的案例。案例不需要复杂的逻辑，只需要真实，它自带说服力。
-2. 视觉化辅助： 能发图就别说话。把你要讲的道理做成图表或找到示意图。让对方自己“看”明白，比你“讲”明白更容易。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自我陶醉</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>” vs. “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>残酷回放</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-  </si>
-  <si>
-    <t>你演的时候觉得自己帅炸了，但如果看录像，你会想钻地缝。这种**“主观与客观的温差”**，是你成长的最大障碍。</t>
+    <t>你演的时候觉得自己帅炸了，但如果看录像，你会想钻地缝。这种“主观与客观的温差”，是你成长的最大障碍。</t>
   </si>
   <si>
     <t>一念之间：化解“羞耻”的即时心法【心法要诀：监控“视角”】</t>
   </si>
   <si>
-    <t>告诉自己：“现在的我不是‘演员’，我是‘导演’。”跳出身体，用第三只眼审视自己。</t>
+    <t>告诉自己：“现在的我不是‘演员’，我是‘导演’。”跳出身体，用第三只眼审视自己。</t>
   </si>
   <si>
     <t>科学筑基的长期修炼1. 拒绝盲演： 承认自己的“感觉”不可靠。
-2. 录像复盘： 每次练习或发言，必须录像。强迫自己看回放，寻找那些“多余的小动作”。羞耻感是你最好的老师。</t>
+2. 录像复盘： 每次练习或发言，必须录像。强迫自己看回放，寻找那些“多余的小动作”。羞耻感是你最好的老师。</t>
   </si>
   <si>
     <t>“强行加戏” vs. “得体表达”</t>
   </si>
   <si>
-    <t>你在生活中也容易“起范儿”，说话拿腔拿调。这让身边人觉得你**“不真诚”、“戏太多”**。</t>
+    <t>你在生活中也容易“起范儿”，说话拿腔拿调。这让身边人觉得你“不真诚”、“戏太多”。</t>
   </si>
   <si>
     <t>一念之间：化解“浮夸”的即时心法【心法要诀：舞台“隔离”】</t>
   </si>
   <si>
-    <t>自己设定一个界限：“这里是生活，不是舞台。”</t>
+    <t>自己设定一个界限：“这里是生活，不是舞台。”</t>
   </si>
   <si>
     <t>科学筑基的长期修炼1. 物理开关： 设定一个具体的动作（如深呼吸一下），作为“上台”和“下台”的开关。不上台时，禁止使用夸张语调。
-2. 朴素原则： 强迫自己在日常沟通中，去掉所有形容词，只陈述事实。用“极简”来中和你的“浮夸”。</t>
+2. 朴素原则： 强迫自己在日常沟通中，去掉所有形容词，只陈述事实。用“极简”来中和你的“浮夸”。</t>
   </si>
   <si>
     <t>“情感驱动” vs. “技术驱动”</t>
@@ -13772,11 +13038,11 @@
     <t>一念之间：化解“失控”的即时心法【心法要诀：方法“派”】</t>
   </si>
   <si>
-    <t>演说不是发泄，是工程学。</t>
-  </si>
-  <si>
-    <t>科学筑基的长期修炼1. 不谈感情，谈肌肉： 既然直觉不行，就靠死记硬背。背诵“手势标准”（手抬多高）、“语调曲线”（在哪里停顿）。用**“精准的控制”来模拟“自然的情感”**。
-2. 逐字稿演练： 不要临场发挥。把每一句话的情绪标注在稿子上，像照着乐谱演奏一样去演讲。</t>
+    <t>演说不是发泄，是工程学。</t>
+  </si>
+  <si>
+    <t>科学筑基的长期修炼1. 不谈感情，谈肌肉： 既然直觉不行，就靠死记硬背。背诵“手势标准”（手抬多高）、“语调曲线”（在哪里停顿）。用“精准的控制”来模拟“自然的情感”。
+2. 逐字稿演练： 不要临场发挥。把每一句话的情绪标注在稿子上，像照着乐谱演奏一样去演讲。</t>
   </si>
   <si>
     <t>遗忘焦虑</t>
@@ -14281,8 +13547,8 @@
   <si>
     <t>1. 提问式思考： 使用“苏格拉底式提问”来引导自己。 清单： “它的反面是什么？它最底层的假设是什么？如果去掉这个条件会怎样？”
 2. 乱序倾倒 (Brain Dump)： 当思维乱成一团时，启动“外部卸载”。 如果你爱说： 打开录音机自言自语。
-如果你爱写： 在纸上狂写关键词。
-原则： 先倒出来，再整理。 不要试图在脑子里完成结构化。</t>
+如果你爱写： 在纸上狂写关键词。
+原则： 先倒出来，再整理。 不要试图在脑子里完成结构化。</t>
   </si>
   <si>
     <t>抽象的隔阂</t>
@@ -14482,7 +13748,7 @@
   <si>
     <t xml:space="preserve"> 内容： 承认自己不适合负责“整件事”，只适合负责“这件事里的具体动作”。
 策略： “只接指令，不接目标。”拒绝： “这个项目交给你了。”（这是目标）
-接受： “你负责每天早上 9 点把报表发给我。”（这是指令）</t>
+接受： “你负责每天早上 9 点把报表发给我。”（这是指令）</t>
   </si>
   <si>
     <t>1. [拒单清单]： 列出一份“我搞不定的任务类型”（如：跨部门协调、制定年度预算）。下次遇到，直接拿出清单说“不”，保护自己的能量。
@@ -14952,35 +14218,35 @@
     <t>社群的“黏合剂”与“暖场王”</t>
   </si>
   <si>
-    <t>利用你对群体的热情（喜欢），通过**“非逻辑性的互动”（如打招呼、搞气氛），维持社群的活跃度。你不需要输出干货，你只需要输出热度**。</t>
+    <t>利用你对群体的热情（喜欢），通过“非逻辑性的互动”（如打招呼、搞气氛），维持社群的活跃度。你不需要输出干货，你只需要输出热度。</t>
   </si>
   <si>
     <t>社群管理员（活跃气氛）、活动现场统筹（负责流程而非内容）、团建组织者。</t>
   </si>
   <si>
     <t>【“暖场话术”清单】行动： 观察一个冷场的微信群。
-任务： 不要发表长篇大论。准备3句**“短小精悍的暖场话”**（如发有趣的表情包、问一个大家都能接得上的简单问题、发个小红包）。
-目的： 验证**“简单互动”**带来的社交反馈，确立“我不讲大道理，但我能让大家开心”的自信。</t>
+任务： 不要发表长篇大论。准备3句“短小精悍的暖场话”（如发有趣的表情包、问一个大家都能接得上的简单问题、发个小红包）。
+目的： 验证“简单互动”带来的社交反馈，确立“我不讲大道理，但我能让大家开心”的自信。</t>
   </si>
   <si>
     <t>热情的“信息广播站”</t>
   </si>
   <si>
-    <t>利用你的分享欲，做信息的**“搬运工”**而不是“加工者”。只要源头是好的，你的传播就是有价值的。</t>
+    <t>利用你的分享欲，做信息的“搬运工”而不是“加工者”。只要源头是好的，你的传播就是有价值的。</t>
   </si>
   <si>
     <t>内部消息通报员、好物推荐官（侧重热情推荐而非深度评测）、新闻播报员。</t>
   </si>
   <si>
     <t>【“复读机”练习】行动： 看到一条重要通知或有趣的新闻。
-任务： 不要自己发挥解释。原封不动地（或只改动开头结尾）转发到群里，并加一句**“大家快看，这个很重要！”**
-目的： 验证**“传播者”**的价值，体验“我是第一个告诉大家的人”的快乐。</t>
+任务： 不要自己发挥解释。原封不动地（或只改动开头结尾）转发到群里，并加一句“大家快看，这个很重要！”
+目的： 验证“传播者”的价值，体验“我是第一个告诉大家的人”的快乐。</t>
   </si>
   <si>
     <t>善于提问的“主动倾听者”</t>
   </si>
   <si>
-    <t>利用对“一对一连接”的渴望（喜欢），通过**“以听代说”来建立关系。既然自己说不清楚，那就多问**。</t>
+    <t>利用对“一对一连接”的渴望（喜欢），通过“以听代说”来建立关系。既然自己说不清楚，那就多问。</t>
   </si>
   <si>
     <t>访谈者、心理咨询师助理（侧重陪伴）、好的倾听型朋友。</t>
@@ -14988,13 +14254,13 @@
   <si>
     <t>【“采访游戏”】行动： 约一个朋友喝咖啡。
 任务： 给自己设定一个角色——“记者”。你的任务不是分享你的事，而是通过提问，让他多说。只准问，不准抢话。
-目的： 验证**“把光打在别人身上”**同样能获得深度的连接感。</t>
+目的： 验证“把光打在别人身上”同样能获得深度的连接感。</t>
   </si>
   <si>
     <t>真诚的“文字书写者”</t>
   </si>
   <si>
-    <t xml:space="preserve"> 利用对深度交流的热爱，通过**“文字”**（记/看）来代偿口语的不足。文字允许你反复修改、整理逻辑，避免“嘴比脑子快”的失误。</t>
+    <t xml:space="preserve"> 利用对深度交流的热爱，通过“文字”（记/看）来代偿口语的不足。文字允许你反复修改、整理逻辑，避免“嘴比脑子快”的失误。</t>
   </si>
   <si>
     <t>情感专栏作者、书信笔友、通过文字沟通的客服/顾问。</t>
@@ -15002,35 +14268,35 @@
   <si>
     <t>【“深情长信”】行动： 想对一个重要的人说些心里话。
 任务： 不要当面说（容易乱）。写一封长信或发一段编辑好的长文字。在发送前，检查三遍逻辑是否清晰。
-目的： 验证**“经过整理的真心”**比“冲动的真心”更有力量。</t>
+目的： 验证“经过整理的真心”比“冲动的真心”更有力量。</t>
   </si>
   <si>
     <t>优质资源的“策展人”</t>
   </si>
   <si>
-    <t>利用你的“分享欲”和“利他心”，通过**“筛选和推荐”来创造价值。你不需要生产内容，你只需要连接**内容和人。</t>
+    <t>利用你的“分享欲”和“利他心”，通过“筛选和推荐”来创造价值。你不需要生产内容，你只需要连接内容和人。</t>
   </si>
   <si>
     <t>好物推荐官（直接甩链接）、资料库管理员（“你要的资料在第几页”）、社群里的“百事通”。</t>
   </si>
   <si>
     <t>【“资源包”整理】行动： 针对朋友常问的一个问题（比如“怎么减肥”、“怎么选保险”）。
-任务： 不要自己写教程。收集3篇写得最好的文章或视频，打包成一个**“资源包”**。
-目的： 体验**“我不说话，也能帮到你”**的高效利他感。</t>
+任务： 不要自己写教程。收集3篇写得最好的文章或视频，打包成一个“资源包”。
+目的： 体验“我不说话，也能帮到你”的高效利他感。</t>
   </si>
   <si>
     <t>真实的“经验互助者”</t>
   </si>
   <si>
-    <t>放弃“高大上”的理论指导，分享最接地气的**“个人体验”**。笨拙的真实，比高深的理论更动人。</t>
+    <t>放弃“高大上”的理论指导，分享最接地气的“个人体验”。笨拙的真实，比高深的理论更动人。</t>
   </si>
   <si>
     <t>互助小组组长、经验贴作者（侧重流水账式的真实记录）。</t>
   </si>
   <si>
     <t>【“避坑指南”微分享】行动： 当你做成了一件小事（如成功早起、做了一道菜）。
-任务： 拍一张照片，配一句**“经验总结”**：“我发现只要……（某个具体动作），就能做成。大家可以试试。”
-目的： 验证**“无需解释原理，仅分享操作”也能获得“谢谢你，很有用”的反馈，满足你的助人渴望**。</t>
+任务： 拍一张照片，配一句“经验总结”：“我发现只要……（某个具体动作），就能做成。大家可以试试。”
+目的： 验证“无需解释原理，仅分享操作”也能获得“谢谢你，很有用”的反馈，满足你的助人渴望。</t>
   </si>
   <si>
     <t>不知疲倦的“气氛组”</t>
@@ -15044,13 +14310,13 @@
   <si>
     <t>【“三分钟热度”直播】行动： 开一个没人认识的小号直播。
 任务： 设定3分钟，保持最高能量状态不停地说话（可以读说明书、报菜名，内容不重要）。
-目的： 验证**“内在动力的独立性”。训练自己在没有掌声、没有反馈的情况下，依然能靠“对自己热爱的确信”**完成高能量表达，建立心理保护罩。</t>
+目的： 验证“内在动力的独立性”。训练自己在没有掌声、没有反馈的情况下，依然能靠“对自己热爱的确信”完成高能量表达，建立心理保护罩。</t>
   </si>
   <si>
     <t>脚本化的“短视频博主”</t>
   </si>
   <si>
-    <t>利用“可编辑性”。现场演容易崩，但短视频可以**NG（重拍）**一百次，直到那个表情对为止。</t>
+    <t>利用“可编辑性”。现场演容易崩，但短视频可以NG（重拍）一百次，直到那个表情对为止。</t>
   </si>
   <si>
     <t>剧情类短视频博主、特定角色的扮演者（如Cosplay）、对口型表演者。</t>
@@ -15058,7 +14324,7 @@
   <si>
     <t>【“百次NG”挑战】行动： 选一句经典的电影台词（10秒）。
 任务： 对着镜头录制。不满意就重来，直到录出这一句的完美状态。
-目的： 验证**“勤能补拙”**的可行性。在一次次重来中，你会找到那个“对的感觉”。</t>
+目的： 验证“勤能补拙”的可行性。在一次次重来中，你会找到那个“对的感觉”。</t>
   </si>
   <si>
     <t>生活博物馆的“馆长”</t>
@@ -15097,9 +14363,9 @@
   </si>
   <si>
     <t>【“时光胶囊”制作】
- ○ 行动： 一次旅行或活动结束后。
- ○ 任务： 挑出 3 张最有感觉的照片，打印出来，贴在一个本子上，并在旁边写下当时的一个**“心情关键词”。
- ○ 目的： 体验“把瞬间实体化”**的安稳感。验证“我不必记得，因为它在这里”的轻松。</t>
+行动： 一次旅行或活动结束后。
+任务： 挑出 3 张最有感觉的照片，打印出来，贴在一个本子上，并在旁边写下当时的一个“心情关键词”。
+目的： 体验“把瞬间实体化”的安稳感。验证“我不必记得，因为它在这里”的轻松。</t>
   </si>
   <si>
     <t>深情的“礼物策划师”</t>
@@ -15112,34 +14378,80 @@
   </si>
   <si>
     <t>【“惊喜档案”建立】
- ○ 行动： 在手机通讯录的“备注”栏里。
- ○ 任务： 当朋友无意中说出“我喜欢吃XXX”或“我想去XXX”时，立刻拿出手机记在他的备注里。
- ○ 目的： 验证“烂笔头”带来的情感价值。体验像松鼠囤松果一样囤积爱意的满足感。</t>
+行动： 在手机通讯录的“备注”栏里。
+任务： 当朋友无意中说出“我喜欢吃XXX”或“我想去XXX”时，立刻拿出手机记在他的备注里。
+目的： 验证“烂笔头”带来的情感价值。体验像松鼠囤松果一样囤积爱意的满足感。</t>
   </si>
   <si>
     <t>直觉型“选品师”与“鉴赏家”</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利用你对故事氛围的敏锐感知（喜欢），充当</t>
-    </r>
-    <r>
-      <rPr>
+    <t xml:space="preserve"> 利用你对故事氛围的敏锐感知（喜欢），充当“人肉过滤器”。你不需要解释为什么好，你只需要告诉大家“这个好，那个不好”。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 歌单/书单主理人（按心情分类）、氛围感博主、选品买手、阅读推广人。</t>
+  </si>
+  <si>
+    <t>【“情绪歌单/书单”】
+行动： 打开你的音乐或读书软件。
+任务： 不要按流派或作者分类。按“情绪”分类。创建一个歌单/书单，以此命名：“适合下雨天一个人发呆”、“读完想去流浪”。
+目的： 体验“用情绪连接他人”的价值。验证“虽然我不懂乐理/文学理论，但我懂人心”。</t>
+  </si>
+  <si>
+    <t>最懂创作者的“理想观众”</t>
+  </si>
+  <si>
+    <t>利用你极强的共情能力，为创作者提供最真实、最热烈的情感反馈。在这个数据冰冷的时代，“活人的温度”是稀缺资源。</t>
+  </si>
+  <si>
+    <t>试读/试映员、粉丝团长（情感维系）、用户体验反馈者。</t>
+  </si>
+  <si>
+    <t>【“高光截屏”】
+行动： 看剧/看书时，遇到打动你的瞬间。
+任务： 截图或拍照，发一条朋友圈。不写分析，只配一个表情（如流泪、爱心、火焰）。
+目的： 验证“瞬间的情感宣泄”也能带来社交共鸣。体验做“嘴替”的快乐。</t>
+  </si>
+  <si>
+    <t>优质资源的“导航员”</t>
+  </si>
+  <si>
+    <t>利用你对“好逻辑”的识别力（喜欢），结合外部工具，建立高质量的索引库。你虽然记不住内容，但你能记住“在哪里能找到最好的内容”。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资料整理员、知识库维护者、信息检索专员、小红书</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知乎的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
@@ -15149,15 +14461,17 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人肉过滤器</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源整理博主</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
@@ -15167,42 +14481,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。你不需要解释为什么好，你只需要告诉大家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>**“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个好，那个不好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -15213,238 +14491,55 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 歌单/书单主理人（按心情分类）、氛围感博主、选品买手、阅读推广人。</t>
-  </si>
-  <si>
-    <t>【“情绪歌单/书单”】
- ○ 行动： 打开你的音乐或读书软件。
- ○ 任务： 不要按流派或作者分类。按“情绪”分类。创建一个歌单/书单，以此命名：“适合下雨天一个人发呆”、“读完想去流浪”。
- ○ 目的： 体验“用情绪连接他人”**的价值。验证“虽然我不懂乐理/文学理论，但我懂人心”。</t>
-  </si>
-  <si>
-    <t>最懂创作者的“理想观众”</t>
-  </si>
-  <si>
-    <t>利用你极强的共情能力，为创作者提供最真实、最热烈的情感反馈。在这个数据冰冷的时代，**“活人的温度”是稀缺资源。</t>
-  </si>
-  <si>
-    <t>试读/试映员、粉丝团长（情感维系）、用户体验反馈者。</t>
-  </si>
-  <si>
-    <t>【“高光截屏”】
- ○ 行动： 看剧/看书时，遇到打动你的瞬间。
- ○ 任务： 截图或拍照，发一条朋友圈。不写分析，只配一个表情（如流泪、爱心、火焰）。
- ○ 目的： 验证“瞬间的情感宣泄”**也能带来社交共鸣。体验做“嘴替”的快乐。</t>
-  </si>
-  <si>
-    <t>优质资源的“导航员”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利用你对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>好逻辑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的识别力（喜欢），结合外部工具，建立高质量的索引库。你虽然记不住内容，但你能记住</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>**“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在哪里能找到最好的内容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资料整理员、知识库维护者、信息检索专员、小红书</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知乎的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资源整理博主</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
     <t>“宝藏索引”制作】
- ○ 行动： 针对一个你感兴趣的主题（如“如何买保险”）。
- ○ 任务： 不要试图背诵条款。收集 5 篇讲得最清楚的文章链接，分类整理到一个文档里，以此命名：“关于买保险，看这就够了”。
- ○ 目的： 体验“拥有知识入口”**的安全感。虽然知识不在脑子里，但它在你的“口袋”里。</t>
+行动： 针对一个你感兴趣的主题（如“如何买保险”）。
+任务： 不要试图背诵条款。收集 5 篇讲得最清楚的文章链接，分类整理到一个文档里，以此命名：“关于买保险，看这就够了”。
+目的： 体验“拥有知识入口”的安全感。虽然知识不在脑子里，但它在你的“口袋”里。</t>
   </si>
   <si>
     <t>知识的“可视化记录者”</t>
   </si>
   <si>
-    <t>利用你对逻辑通透的渴望（喜欢），通过“画图”来辅助记忆，反而产出了极具价值的**“逻辑快照”。</t>
+    <t>利用你对逻辑通透的渴望（喜欢），通过“画图”来辅助记忆，反而产出了极具价值的“逻辑快照”。</t>
   </si>
   <si>
     <t>流程图绘制员、PPT 美化师（侧重逻辑梳理）、思维导图整理者。</t>
   </si>
   <si>
     <t>【“逻辑快照”绘制】
- ○ 行动： 听完一节课或读完一篇文章，感觉“懂了”的那一瞬间。
- ○ 任务： 无论画得多丑，试着用方框和箭头，把那个让你“懂了”的路径画下来。
- ○ 目的： 体验“把稍纵即逝的理解锁在纸上”的掌控感。这不是在思考，这是在存档**。</t>
+行动： 听完一节课或读完一篇文章，感觉“懂了”的那一瞬间。
+任务： 无论画得多丑，试着用方框和箭头，把那个让你“懂了”的路径画下来。
+目的： 体验“把稍纵即逝的理解锁在纸上”的掌控感。这不是在思考，这是在存档。</t>
   </si>
   <si>
     <t>高价值信息的“录入员”与“校对者”</t>
   </si>
   <si>
-    <t>利用你对“生僻/复杂/高价值信息”的耐受力（别人觉得枯燥，你觉得有价值），进行高精度的**“数字化搬运”。你敬畏这些信息，所以你会无比认真。</t>
+    <t>利用你对“生僻/复杂/高价值信息”的耐受力（别人觉得枯燥，你觉得有价值），进行高精度的“数字化搬运”。你敬畏这些信息，所以你会无比认真。</t>
   </si>
   <si>
     <t>档案数字化专员、古籍录入员、医疗病历整理员、法律文书校对、数据标注员。</t>
   </si>
   <si>
     <t>(微型分析/模仿)：【“转录”练习】
- ○ 行动： 找一篇你觉得极具价值但很难懂的文章（如经典古文、前沿技术白皮书）。
- ○ 任务： 打开电脑或笔记本，逐字逐句地把它录入/抄写下来。
- ○ 目的： 验证“机械搬运”**带来的心流体验。虽然不懂，但你感觉自己“沾染了智慧的气息”，并且把它永久保存了下来。</t>
+行动： 找一篇你觉得极具价值但很难懂的文章（如经典古文、前沿技术白皮书）。
+任务： 打开电脑或笔记本，逐字逐句地把它录入/抄写下来。
+目的： 验证“机械搬运”带来的心流体验。虽然不懂，但你感觉自己“沾染了智慧的气息”，并且把它永久保存了下来。</t>
   </si>
   <si>
     <t>知识库的“维护者”</t>
   </si>
   <si>
-    <t>利用你对“秩序”和“拥有”的渴望，构建庞大而有序的资料库。你记不住内容，但你记得住**“位置”。</t>
+    <t>利用你对“秩序”和“拥有”的渴望，构建庞大而有序的资料库。你记不住内容，但你记得住“位置”。</t>
   </si>
   <si>
     <t>图书管理员、企业知识库运营、资源导航站站长、档案管理专员。</t>
   </si>
   <si>
     <t>【“索引表”制作】
- ○ 行动： 整理你收藏夹里那些“觉得很有用但没看/没记住”的文章。
- ○ 任务： 做一张 Excel 表，列出：[标题] [核心价值标签] [链接]。
- ○ 目的： 验证“建立秩序”**的安全感。你不需要记住内容，你只需要维护这张表，你就拥有了这些知识。</t>
+行动： 整理你收藏夹里那些“觉得很有用但没看/没记住”的文章。
+任务： 做一张 Excel 表，列出：[标题] [核心价值标签] [链接]。
+目的： 验证“建立秩序”的安全感。你不需要记住内容，你只需要维护这张表，你就拥有了这些知识。</t>
   </si>
   <si>
     <r>
@@ -16627,7 +15722,7 @@
     <t>“宣泄快感” vs. “有效留白”</t>
   </si>
   <si>
-    <t>你的大脑在描述自己感受时，会获得巨大的快感（自我确认）。这让你容易**“刹不住车”**，把对话填得太满、太密，没有给对方留出思考和回味的空间。对方虽然听懂了，但可能会感到一种“被语言淹没”的压抑感。</t>
+    <t>你的大脑在描述自己感受时，会获得巨大的快感（自我确认）。这让你容易“刹不住车”，把对话填得太满、太密，没有给对方留出思考和回味的空间。对方虽然听懂了，但可能会感到一种“被语言淹没”的压抑感。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法【心法要诀：编辑“思维”】</t>
@@ -16649,11 +15744,11 @@
     <t>一念之间：化解“双刃剑”的即时心法【心法要诀：回声“定位”】</t>
   </si>
   <si>
-    <t>就像蝙蝠用回声定位一样，时刻关注你的声音在对方身上产生的“回响”。从关注“我要说什么”转向关注**“他需要听什么”**。</t>
+    <t>就像蝙蝠用回声定位一样，时刻关注你的声音在对方身上产生的“回响”。从关注“我要说什么”转向关注“他需要听什么”。</t>
   </si>
   <si>
     <t>根除“双刃剑”的长期修炼1. 确认连接： 频繁使用确认句式：“我说到这里，你的感觉是怎样的？”或者“这部分无论对我也很重要，你觉得呢？”把话筒递给对方，确保连接线没有断。
-2. 镜像关注： 当你分享了自己的一段感受后，立刻邀请对方分享一段他的。保持对话的**“流量平衡”**。</t>
+2. 镜像关注： 当你分享了自己的一段感受后，立刻邀请对方分享一段他的。保持对话的“流量平衡”。</t>
   </si>
   <si>
     <t>“感性流淌” vs. “共鸣锚点”</t>
@@ -16669,7 +15764,7 @@
   </si>
   <si>
     <t>根除“双刃剑”的长期修炼1. 连接审查： 在开口说一段长话前，问自己：“这段话能拉近我们的关系吗？还是只是我的自言自语？”如果是后者，就删掉。
-2. 价值锚定： 用**“关系增量”**来判断是否要说。只有那些能引发对方共鸣、让彼此更懂对方的话，才是“金句”。</t>
+2. 价值锚定： 用“关系增量”来判断是否要说。只有那些能引发对方共鸣、让彼此更懂对方的话，才是“金句”。</t>
   </si>
   <si>
     <t>“给予者光辉” vs. “能量滥用”</t>
@@ -16691,7 +15786,7 @@
     <t>“说教” vs. “赋能”</t>
   </si>
   <si>
-    <t>因为你太想把前因后果都讲透，结果容易把对话变成了**“单向小课堂”**。这会破坏平等的社交关系，让人感到被低估或想逃离。</t>
+    <t>因为你太想把前因后果都讲透，结果容易把对话变成了“单向小课堂”。这会破坏平等的社交关系，让人感到被低估或想逃离。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法【心法要诀：降维“打击”】</t>
@@ -16701,7 +15796,7 @@
   </si>
   <si>
     <t>能力建设营：根除“双刃剑”的长期修炼1. 以喻代讲： 养成习惯，解释任何复杂概念前，先想：“这就好比……”
-2. 留白提问： 从“我告诉你是什么”转向**“你觉得像什么？”**。引导对方自己悟出来，而不是你嚼碎了喂给他。让对方觉得是他自己想明白的，而不是被你教会的。</t>
+2. 留白提问： 从“我告诉你是什么”转向“你觉得像什么？”。引导对方自己悟出来，而不是你嚼碎了喂给他。让对方觉得是他自己想明白的，而不是被你教会的。</t>
   </si>
   <si>
     <t>“全盘托出” vs. “核心交付”</t>
@@ -16723,7 +15818,7 @@
     <t>“掌声成瘾” vs. “余音绕梁”</t>
   </si>
   <si>
-    <t>你极度依赖即时反馈（喝彩）。一旦灯光熄灭、观众散去，你会陷入巨大的空虚，甚至为了维持关注度而在生活中做出哗众取宠的行为。你成了**“多巴胺的奴隶”**。</t>
+    <t>你极度依赖即时反馈（喝彩）。一旦灯光熄灭、观众散去，你会陷入巨大的空虚，甚至为了维持关注度而在生活中做出哗众取宠的行为。你成了“多巴胺的奴隶”。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法【心法要诀：追求“回响”】</t>
@@ -16732,14 +15827,14 @@
     <t>演讲结束或聚会散场后，不要只数有多少人鼓掌，要看有多少人陷入沉思。告诉自己：“我要的不是一时的热闹，我要住在他们的脑子里。”</t>
   </si>
   <si>
-    <t>能力建设营：根除“双刃剑”的长期修炼1. 区分“演”与“活”： 建立开关机制。告诉自己：“舞台上我是王，舞台下我是普通人。”在生活中主动**“卸妆”**，练习平实地说话，把戏剧张力留给关键时刻。
-2. 寻找使命： 将“为了被夸”升级为**“为了传递价值”**。当你的演说有了超越自我的目的（如为了公益、为了团队愿景）时，你的能量才不会因为掌声的消失而枯竭。</t>
+    <t>能力建设营：根除“双刃剑”的长期修炼1. 区分“演”与“活”： 建立开关机制。告诉自己：“舞台上我是王，舞台下我是普通人。”在生活中主动“卸妆”，练习平实地说话，把戏剧张力留给关键时刻。
+2. 寻找使命： 将“为了被夸”升级为“为了传递价值”。当你的演说有了超越自我的目的（如为了公益、为了团队愿景）时，你的能量才不会因为掌声的消失而枯竭。</t>
   </si>
   <si>
     <t>“信用破产” vs. “艺术真实”</t>
   </si>
   <si>
-    <t>的朋友可能觉得你“嘴里没有一句实话”，分不清你哪句是演的，哪句是真的。这种**“信任危机”**会让你在关键时刻失去支持，大家只把你当“乐子人”，不把你当“决策者”。</t>
+    <t>的朋友可能觉得你“嘴里没有一句实话”，分不清你哪句是演的，哪句是真的。这种“信任危机”会让你在关键时刻失去支持，大家只把你当“乐子人”，不把你当“决策者”。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法【心法要诀：虚实“隔离”】</t>
@@ -16772,13 +15867,13 @@
     <t>情绪反刍的内耗</t>
   </si>
   <si>
-    <t>因为记忆太鲜活，你容易沉浸在过往的“情绪温床”中。美好的回忆让你流连忘返，不愿面对平淡的现实；痛苦的回忆则像高清电影一样反复播放，让你陷入无休止的内耗。你把记忆当成了**“避难所”，而不是“加油站”。</t>
+    <t>因为记忆太鲜活，你容易沉浸在过往的“情绪温床”中。美好的回忆让你流连忘返，不愿面对平淡的现实；痛苦的回忆则像高清电影一样反复播放，让你陷入无休止的内耗。你把记忆当成了“避难所”，而不是“加油站”。</t>
   </si>
   <si>
     <t>化解“双刃剑”的即时心法【心法要诀：切换“导演视角”】</t>
   </si>
   <si>
-    <t>当你发现自己沉溺于某段回忆无法自拔时，对自己喊：“卡！素材采集完毕。” 把这段记忆看作是你人生电影的一段“素材”。问自己：“这段素材如果要剪辑进我的自传，它的主题**是什么？”</t>
+    <t>当你发现自己沉溺于某段回忆无法自拔时，对自己喊：“卡！素材采集完毕。” 把这段记忆看作是你人生电影的一段“素材”。问自己：“这段素材如果要剪辑进我的自传，它的主题是什么？”</t>
   </si>
   <si>
     <t>能力建设营：根除“双刃剑”的长期修炼
@@ -16929,13 +16024,13 @@
     <t>预判对他人的定性</t>
   </si>
   <si>
-    <t>你记住了太多典型的人物样本。在现实中，你容易在接触初期就给对方**“定性”：“这人是那种‘虚伪的反派’”、“那是‘无脑的配角’”。这种“贴标签”的本能虽然准，但也阻碍了你深入了解一个真实、复杂的人。</t>
+    <t>你记住了太多典型的人物样本。在现实中，你容易在接触初期就给对方“定性”：“这人是那种‘虚伪的反派’”、“那是‘无脑的配角’”。这种“贴标签”的本能虽然准，但也阻碍了你深入了解一个真实、复杂的人。</t>
   </si>
   <si>
     <t>一念之间：化解“双刃剑”的即时心法【心法要诀：完善“设定”】</t>
   </si>
   <si>
-    <t>内容： 当你对某人产生厌烦或轻视时，暂停评判。告诉自己：“他不是扁平的 NPC，他是一个复杂的圆形人物**，剧情才刚刚开始。”</t>
+    <t>内容： 当你对某人产生厌烦或轻视时，暂停评判。告诉自己：“他不是扁平的 NPC，他是一个复杂的圆形人物，剧情才刚刚开始。”</t>
   </si>
   <si>
     <t>能力建设营：根除“双刃剑”的长期修炼
@@ -17576,30 +16671,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>你热爱团队氛围，因此害怕冲突。当团队出现分歧或有人偷懒时，你可能倾向于</t>
     </r>
     <r>
@@ -18111,8 +17182,8 @@
     <t>【微型创造 1：开启“情绪镜像”练习】
 动机火种： 利用你对“深度连接”的渴望（喜欢）和“精准描述”的能力（天赋）。
 行动： 找一个正在经历情绪波动的朋友（或伴侣）进行一次深聊。
-任务： 全程不给建议，只做**“嘴替”**。尝试用最精准的语言，帮他把他心里想说但说不出来的那个感觉描述出来：“你是不是感觉像……一样？”
-觉察： 当对方惊呼“天啊，你太懂我了”时，体验那种**“灵魂共振”**的顶级成就感。</t>
+任务： 全程不给建议，只做“嘴替”。尝试用最精准的语言，帮他把他心里想说但说不出来的那个感觉描述出来：“你是不是感觉像……一样？”
+觉察： 当对方惊呼“天啊，你太懂我了”时，体验那种“灵魂共振”的顶级成就感。</t>
   </si>
   <si>
     <t>极具亲和力的“导师”与“传播者”</t>
@@ -18127,8 +17198,8 @@
     <t>【微型创造 2：开启“私密信件”写作】
 动机火种： 利用你的表达欲和对他人的“对象感”。
 行动： 想象一个具体的听众（比如你的好朋友），给他写一封信（或录一段音频），解释一个你最近学到的新观点或感悟。
-任务： 全程使用**“第二人称（你）”**，就像在他耳边说话一样。关注他的反应，不断设问：“看到这里，你可能会问……其实是这样的。”
-觉察： 体验那种**“虽然不在场，但依然紧密相连”**的掌控感。验证你的语言是否具有建立亲密关系的力量。</t>
+任务： 全程使用“第二人称（你）”，就像在他耳边说话一样。关注他的反应，不断设问：“看到这里，你可能会问……其实是这样的。”
+觉察： 体验那种“虽然不在场，但依然紧密相连”的掌控感。验证你的语言是否具有建立亲密关系的力量。</t>
   </si>
   <si>
     <t>化繁为简的“知识布道者”</t>
@@ -18144,7 +17215,7 @@
 动机火种： 利用你“把复杂变简单”的智力快感（天赋）和分享欲（喜欢）。
 行动： 挑选一个你专业领域里很难懂的概念（如“区块链”、“内卷”、“量子纠缠”）。
 任务： 设计一个生活化的比喻（比如用“打麻将”解释“区块链”），尝试在1分钟内讲给一个完全不懂的外行听（如家里的老人或孩子）。
-觉察： 当看到对方眼神从迷茫变成“秒懂”的那一刻，体验那种**“认知屏障被打破”**的成就感。</t>
+觉察： 当看到对方眼神从迷茫变成“秒懂”的那一刻，体验那种“认知屏障被打破”的成就感。</t>
   </si>
   <si>
     <t>观念植入的“布道师”</t>
@@ -18159,8 +17230,8 @@
     <t>【微型创造 2：开启“金句”炼金术】
 动机火种： 利用你对“点亮他人”的渴望。
 行动： 回顾你最近想分享的一个观点或感悟。
-任务： 不要长篇大论。尝试把它提炼成一句**“金句”**（押韵、对仗或有反转），发在朋友圈或社交媒体上。
-觉察： 观察这句话是否引发了大家的**“点赞”或“转发”**（共鸣）。验证你的语言是否具有穿透人心的力量。</t>
+任务： 不要长篇大论。尝试把它提炼成一句“金句”（押韵、对仗或有反转），发在朋友圈或社交媒体上。
+觉察： 观察这句话是否引发了大家的“点赞”或“转发”（共鸣）。验证你的语言是否具有穿透人心的力量。</t>
   </si>
   <si>
     <t>极致的“表演艺术家”</t>
@@ -18176,7 +17247,7 @@
 动机火种： 利用你“戏精”的表演欲（喜欢）和情绪调动能力（天赋）。
 行动： 选取一个生活中的普通场景（比如“等外卖超时了”）。
 任务： 对着镜子或镜头，用最夸张、最戏剧化的方式演绎这个场景的内心戏（从焦急到绝望再到狂喜），限时1分钟。
-觉察： 体验那种**“把平庸生活变成史诗电影”**的掌控感，以及让空气凝固的张力。</t>
+觉察： 体验那种“把平庸生活变成史诗电影”的掌控感，以及让空气凝固的张力。</t>
   </si>
   <si>
     <t>愿景的“布道者”与“感召者”</t>
@@ -18191,9 +17262,9 @@
     <t>【微型创造 2：开启“梦想动员令”】
 动机火种： 利用你对“驱动他人”的渴望。
 行动： 假设你要号召朋友们一起做一件小事（比如周末去爬山，或者一起打卡）。
-任务： 设计一段3分钟的**“动员演讲”**。 不要罗列好处（讲道理），要描绘画面（“想象一下，当我们站在山顶……”）。
+任务： 设计一段3分钟的“动员演讲”。 不要罗列好处（讲道理），要描绘画面（“想象一下，当我们站在山顶……”）。
 最后给出一个明确指令（“现在，谁跟我走？”）。
-觉察： 观察他们的眼神是否发亮，体验那种**“用语言接管他人意志”**的领袖快感。</t>
+觉察： 观察他们的眼神是否发亮，体验那种“用语言接管他人意志”的领袖快感。</t>
   </si>
   <si>
     <t>情感与体验的“再造物主”</t>
@@ -18256,8 +17327,8 @@
     <t xml:space="preserve"> 微型创造 2：【“金线”捕捉】
  动机火种： 利用你对“优质内容”的共鸣（喜欢）和鉴别力（天赋）。
  行动： 面对一堆待处理的信息（如一堆书、一堆项目书、一堆提案）。
- 任务： 快速浏览，依靠直觉挑出那个**“最有戏”的一个。并用一句话记下“它让你想起了哪个经典案例”。
- 觉察： 体验“沙里淘金”**的眼光独到感。</t>
+ 任务： 快速浏览，依靠直觉挑出那个“最有戏”的一个。并用一句话记下“它让你想起了哪个经典案例”。
+ 觉察： 体验“沙里淘金”的眼光独到感。</t>
   </si>
   <si>
     <t>构建理论大厦的“架构师”</t>
@@ -18272,8 +17343,8 @@
     <t>微型创造 1：【“一张图”挑战】
  动机火种： 利用你对“秩序感”的极致追求（喜欢）和“压缩信息”的能力（天赋）。
  行动： 找一个你最近感兴趣的复杂领域（如“二战历史”、“咖啡风味学”）。
- 任务： 尝试在一张 A4 纸上，用**一张图（思维导图/流程图/架构图）把这个领域的核心逻辑画清楚。
- 觉察： 体验那种“把世界装进一张纸”**的上帝视角快感。</t>
+ 任务： 尝试在一张 A4 纸上，用一张图（思维导图/流程图/架构图）把这个领域的核心逻辑画清楚。
+ 觉察： 体验那种“把世界装进一张纸”的上帝视角快感。</t>
   </si>
   <si>
     <t>复杂信息的“翻译官”</t>
@@ -18288,8 +17359,8 @@
     <t xml:space="preserve"> 微型创造 2：【“乐高积木”法】
  动机火种： 利用你“理解了”之后的整理欲。
  行动： 拿一个复杂的概念（如“熵增”、“区块链”）。
- 任务： 试着用**“乐高积木”（可以是实体的积木，也可以是概念上的模块）来拼出这个概念的结构。或者为它找一个“绝妙的比喻”。
- 觉察： 体验“把无形逻辑变为有形实体”**的成就感。</t>
+ 任务： 试着用“乐高积木”（可以是实体的积木，也可以是概念上的模块）来拼出这个概念的结构。或者为它找一个“绝妙的比喻”。
+ 觉察： 体验“把无形逻辑变为有形实体”的成就感。</t>
   </si>
   <si>
     <t>精密体系的“活法典”</t>
@@ -18304,14 +17375,14 @@
     <t>微型创造 1：【“纠错大神”挑战】
  动机火种： 利用你对“准确性”的执着（喜欢）和“无损检索”的能力（天赋）。
  行动： 找一份专业文件（合同、论文、代码）或一篇科普文章。
- 任务： 凭借记忆（或快速比对），找出其中的**“事实性错误”、“引用偏差”或“数据漏洞”。
- 觉察： 体验“像精密仪器一样扫描漏洞”**的秩序恢复感。</t>
+ 任务： 凭借记忆（或快速比对），找出其中的“事实性错误”、“引用偏差”或“数据漏洞”。
+ 觉察： 体验“像精密仪器一样扫描漏洞”的秩序恢复感。</t>
   </si>
   <si>
     <t>传承文明的“吟游诗人”</t>
   </si>
   <si>
-    <t>利用海量的知识储备，在跨文化的交流或创作中，信手拈来，引经据典。你不是在背书，你是在**“调用人类的智慧”。</t>
+    <t>利用海量的知识储备，在跨文化的交流或创作中，信手拈来，引经据典。你不是在背书，你是在“调用人类的智慧”。</t>
   </si>
   <si>
     <t>汉学家、翻译家、博物馆讲解员（专家级）、智力竞赛选手、编剧（历史/考据向）。</t>
@@ -18321,7 +17392,7 @@
  动机火种： 利用你对“知识积累”的满足感和“秩序感”。
  行动： 每天在便签或社交媒体上，分享一个“冷知识”或“经典引用”。
  任务： 不要求有深刻评论，只要求“绝对准确”和“出处详实”。
- 觉察： 体验“守护知识火种”**的神圣感。</t>
+ 觉察： 体验“守护知识火种”的神圣感。</t>
   </si>
   <si>
     <r>
@@ -18484,8 +17555,8 @@
  行动： 针对家里一个让你觉得“不顺手”的角落（如乱糟糟的数据线、难用的收纳柜），构思一个改良方案。
  呈现方式（去门槛化）：
  如果你擅长动手： 画出草图或直接摆弄。
- 如果你不爱动手： 上网搜一张和你构思一致的**“理想效果图”，或者用语音描述给同伴听：“如果这里加个挂钩，线从后面走……”
- 觉察： 哪怕只是在脑子里或口头上完成了方案，你是否感到了“问题被智力解决”**的爽感？</t>
+ 如果你不爱动手： 上网搜一张和你构思一致的“理想效果图”，或者用语音描述给同伴听：“如果这里加个挂钩，线从后面走……”
+ 觉察： 哪怕只是在脑子里或口头上完成了方案，你是否感到了“问题被智力解决”的爽感？</t>
   </si>
   <si>
     <r>
@@ -18530,69 +17601,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利用你的远距离联想能力，跨越行业边界，提出颠覆性的概念或愿景（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">到 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
+    <t>利用你的远距离联想能力，跨越行业边界，提出颠覆性的概念或愿景（0 到 1）。</t>
   </si>
   <si>
     <t>创新顾问、未来学家、趋势分析师、前沿科技研究员。</t>
@@ -23315,7 +22324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23402,6 +22411,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -23957,7 +22969,7 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
@@ -23977,7 +22989,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:10">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -24277,16 +23289,16 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="33" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -24309,16 +23321,16 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="33" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -24344,13 +23356,13 @@
       <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="33" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -24405,16 +23417,16 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="33" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -24437,16 +23449,16 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="33" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -24472,13 +23484,13 @@
       <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="33" t="s">
         <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="33" t="s">
         <v>79</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -24827,7 +23839,7 @@
       <c r="G27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="34" t="s">
         <v>133</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -24865,7 +23877,7 @@
       <c r="I28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -25275,7 +24287,7 @@
       <c r="G41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="36" t="s">
         <v>203</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -25790,7 +24802,7 @@
       <c r="H57" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I57" s="36" t="s">
+      <c r="I57" s="37" t="s">
         <v>284</v>
       </c>
       <c r="J57" s="12" t="s">
@@ -26046,7 +25058,7 @@
       <c r="H65" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I65" s="37" t="s">
+      <c r="I65" s="38" t="s">
         <v>324</v>
       </c>
       <c r="J65" s="6" t="s">
@@ -26619,7 +25631,7 @@
       <c r="H83" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I83" s="37" t="s">
+      <c r="I83" s="38" t="s">
         <v>413</v>
       </c>
     </row>
@@ -26648,7 +25660,7 @@
       <c r="H84" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I84" s="37" t="s">
+      <c r="I84" s="38" t="s">
         <v>417</v>
       </c>
     </row>
@@ -27567,8 +26579,8 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="45" customHeight="1" outlineLevelCol="5"/>
@@ -30616,7 +29628,7 @@
       <c r="C2" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>562</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -32827,7 +31839,7 @@
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>976</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -33898,9 +32910,9 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="60" customHeight="1" outlineLevelCol="7"/>
@@ -34760,7 +33772,7 @@
       <c r="D33" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="29" t="s">
         <v>1246</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -36139,7 +35151,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:B33"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -36433,7 +35445,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="15" ht="42" spans="1:6">
+    <row r="15" ht="40.5" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -36453,7 +35465,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="16" ht="42" spans="1:6">
+    <row r="16" ht="40.5" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -36473,7 +35485,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:6">
+    <row r="17" ht="27" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -36493,7 +35505,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="18" ht="42" spans="1:6">
+    <row r="18" ht="40.5" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -38142,9 +37154,9 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="60" customHeight="1"/>
@@ -40379,9 +39391,9 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="45" customHeight="1" outlineLevelCol="5"/>
@@ -41551,7 +40563,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="60" customHeight="1" outlineLevelCol="7"/>
@@ -43426,7 +42438,7 @@
       <c r="D72" s="13" t="s">
         <v>2777</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="12" t="s">
         <v>2778</v>
       </c>
       <c r="F72" s="1" t="s">
